--- a/biology/Botanique/Chazaliella_obanensis/Chazaliella_obanensis.xlsx
+++ b/biology/Botanique/Chazaliella_obanensis/Chazaliella_obanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chazaliella obanensis (Wernham) Petit &amp; Verdc. est une espèce de plantes de la famille des Rubiacées et du genre Chazaliella, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique obanensis fait référence aux monts Oban, au Nigeria, où Percy Amaury Talbot découvrit le premier spécimen en 1911[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique obanensis fait référence aux monts Oban, au Nigeria, où Percy Amaury Talbot découvrit le premier spécimen en 1911.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste dont la hauteur est généralement comprise entre 0,6 et 2 m[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste dont la hauteur est généralement comprise entre 0,6 et 2 m.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps connue à travers le seul spécimen récolté aux monts Oban, l'espèce s'est avérée assez commune au Cameroun lorsque des explorations botaniques ont été menées dans les années 1990
-au pied du mont Cameroun, puis au mont Koupé[4].
+au pied du mont Cameroun, puis au mont Koupé.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart de ces spécimens ayant été récoltés à une altitude inférieure à 1 000 m, l'espèce pourrait être vulnérable à l'expansion de l'agriculture[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart de ces spécimens ayant été récoltés à une altitude inférieure à 1 000 m, l'espèce pourrait être vulnérable à l'expansion de l'agriculture.
 </t>
         </is>
       </c>
